--- a/docs/StructureDefinition-BRProcedimentoRealizado-1.0.xlsx
+++ b/docs/StructureDefinition-BRProcedimentoRealizado-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-BRProcedimentoRealizado-1.0.xlsx
+++ b/docs/StructureDefinition-BRProcedimentoRealizado-1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5887" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5887" uniqueCount="739">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -1236,6 +1236,9 @@
   </si>
   <si>
     <t>Procedure.subject.extension.extension</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Procedure.subject.extension:unidentifiedPatient.extension:gender</t>
@@ -9405,7 +9408,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9506,20 +9509,20 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>392</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>87</v>
@@ -9620,10 +9623,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9732,10 +9735,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9846,10 +9849,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9889,7 +9892,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -9960,10 +9963,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10072,20 +10075,20 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>392</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>87</v>
@@ -10186,10 +10189,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10298,10 +10301,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10412,10 +10415,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10455,7 +10458,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -10526,10 +10529,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10552,7 +10555,7 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>169</v>
@@ -10638,20 +10641,20 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>392</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>87</v>
@@ -10752,10 +10755,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10864,10 +10867,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10978,10 +10981,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11021,7 +11024,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -11092,10 +11095,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11204,10 +11207,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11247,7 +11250,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -11318,10 +11321,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11344,7 +11347,7 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>169</v>
@@ -11430,10 +11433,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11459,13 +11462,13 @@
         <v>146</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11515,7 +11518,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11524,7 +11527,7 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>98</v>
@@ -11544,10 +11547,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11573,13 +11576,13 @@
         <v>100</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11605,13 +11608,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -11629,7 +11632,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11658,10 +11661,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11687,13 +11690,13 @@
         <v>178</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11743,7 +11746,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11761,7 +11764,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -11772,10 +11775,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11884,10 +11887,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11998,10 +12001,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12114,10 +12117,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12143,7 +12146,7 @@
         <v>200</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>202</v>
@@ -12177,13 +12180,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -12230,10 +12233,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12346,10 +12349,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12375,10 +12378,10 @@
         <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>280</v>
@@ -12460,10 +12463,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12572,10 +12575,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12686,10 +12689,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12715,13 +12718,13 @@
         <v>146</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12771,7 +12774,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12800,10 +12803,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12826,16 +12829,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12885,7 +12888,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12900,24 +12903,24 @@
         <v>98</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12940,16 +12943,16 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12999,7 +13002,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13014,24 +13017,24 @@
         <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13054,13 +13057,13 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13111,7 +13114,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13129,10 +13132,10 @@
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -13140,10 +13143,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13166,13 +13169,13 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13223,7 +13226,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13241,10 +13244,10 @@
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>77</v>
@@ -13252,13 +13255,13 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>77</v>
@@ -13280,13 +13283,13 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13337,7 +13340,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13352,10 +13355,10 @@
         <v>98</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -13366,10 +13369,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13478,10 +13481,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13588,13 +13591,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="B97" t="s" s="2">
-        <v>500</v>
-      </c>
       <c r="C97" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>77</v>
@@ -13616,13 +13619,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13702,14 +13705,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13731,10 +13734,10 @@
         <v>131</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>156</v>
@@ -13789,7 +13792,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13818,10 +13821,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13847,14 +13850,14 @@
         <v>200</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>77</v>
@@ -13882,10 +13885,10 @@
         <v>194</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
@@ -13903,7 +13906,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13918,24 +13921,24 @@
         <v>98</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14044,10 +14047,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14158,10 +14161,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14274,10 +14277,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14386,10 +14389,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14500,10 +14503,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14616,10 +14619,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14730,10 +14733,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14844,10 +14847,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14958,10 +14961,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15074,10 +15077,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15190,10 +15193,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15216,17 +15219,17 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -15275,7 +15278,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>87</v>
@@ -15290,24 +15293,24 @@
         <v>98</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15416,10 +15419,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15530,10 +15533,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15559,13 +15562,13 @@
         <v>146</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15615,7 +15618,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -15624,7 +15627,7 @@
         <v>87</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>98</v>
@@ -15644,10 +15647,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15673,13 +15676,13 @@
         <v>100</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15705,13 +15708,13 @@
         <v>77</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>77</v>
@@ -15729,7 +15732,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15758,10 +15761,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15787,13 +15790,13 @@
         <v>178</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15843,7 +15846,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15861,7 +15864,7 @@
         <v>77</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>77</v>
@@ -15872,10 +15875,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15984,10 +15987,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16098,10 +16101,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16214,10 +16217,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16243,7 +16246,7 @@
         <v>200</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M120" t="s" s="2">
         <v>202</v>
@@ -16277,13 +16280,13 @@
         <v>77</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>77</v>
@@ -16330,10 +16333,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16446,10 +16449,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16475,10 +16478,10 @@
         <v>146</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N122" t="s" s="2">
         <v>280</v>
@@ -16560,10 +16563,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16672,10 +16675,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16786,10 +16789,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16815,13 +16818,13 @@
         <v>146</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16871,7 +16874,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -16900,10 +16903,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16926,17 +16929,17 @@
         <v>77</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -16985,7 +16988,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -17003,7 +17006,7 @@
         <v>77</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>77</v>
@@ -17014,10 +17017,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17126,10 +17129,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17240,10 +17243,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17269,13 +17272,13 @@
         <v>146</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17325,7 +17328,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -17334,7 +17337,7 @@
         <v>87</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>98</v>
@@ -17354,10 +17357,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17383,13 +17386,13 @@
         <v>100</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -17415,13 +17418,13 @@
         <v>77</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
@@ -17439,7 +17442,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -17468,10 +17471,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17497,13 +17500,13 @@
         <v>178</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -17553,7 +17556,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
@@ -17571,7 +17574,7 @@
         <v>77</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>77</v>
@@ -17582,10 +17585,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17694,10 +17697,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17808,10 +17811,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17924,10 +17927,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17953,7 +17956,7 @@
         <v>200</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>202</v>
@@ -17987,13 +17990,13 @@
         <v>77</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>77</v>
@@ -18040,10 +18043,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18156,10 +18159,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18185,10 +18188,10 @@
         <v>146</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>280</v>
@@ -18270,10 +18273,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18382,10 +18385,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18496,10 +18499,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18525,13 +18528,13 @@
         <v>146</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -18581,7 +18584,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -18610,10 +18613,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18636,17 +18639,17 @@
         <v>80</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -18695,7 +18698,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>78</v>
@@ -18713,10 +18716,10 @@
         <v>77</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>77</v>
@@ -18724,10 +18727,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18753,13 +18756,13 @@
         <v>200</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -18788,10 +18791,10 @@
         <v>340</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>77</v>
@@ -18809,7 +18812,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -18824,13 +18827,13 @@
         <v>98</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>77</v>
@@ -18838,10 +18841,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18864,16 +18867,16 @@
         <v>80</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -18923,7 +18926,7 @@
         <v>77</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>78</v>
@@ -18938,13 +18941,13 @@
         <v>98</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>77</v>
@@ -18952,10 +18955,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18981,13 +18984,13 @@
         <v>200</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19016,10 +19019,10 @@
         <v>340</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>77</v>
@@ -19037,7 +19040,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -19055,21 +19058,21 @@
         <v>77</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19095,13 +19098,13 @@
         <v>200</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -19130,10 +19133,10 @@
         <v>340</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>77</v>
@@ -19151,7 +19154,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -19169,7 +19172,7 @@
         <v>77</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>77</v>
@@ -19180,10 +19183,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19206,16 +19209,16 @@
         <v>77</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19265,7 +19268,7 @@
         <v>77</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>78</v>
@@ -19283,7 +19286,7 @@
         <v>77</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>77</v>
@@ -19294,10 +19297,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19323,13 +19326,13 @@
         <v>200</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -19358,10 +19361,10 @@
         <v>340</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>77</v>
@@ -19379,7 +19382,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -19397,7 +19400,7 @@
         <v>77</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>77</v>
@@ -19408,10 +19411,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19434,17 +19437,17 @@
         <v>77</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -19493,7 +19496,7 @@
         <v>77</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>78</v>
@@ -19511,7 +19514,7 @@
         <v>77</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>77</v>
@@ -19522,10 +19525,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19551,10 +19554,10 @@
         <v>200</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -19584,10 +19587,10 @@
         <v>340</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>77</v>
@@ -19605,7 +19608,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -19623,7 +19626,7 @@
         <v>77</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>77</v>
@@ -19634,10 +19637,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19660,13 +19663,13 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -19717,7 +19720,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -19732,24 +19735,24 @@
         <v>98</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19858,10 +19861,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19972,10 +19975,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19998,16 +20001,16 @@
         <v>80</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20057,7 +20060,7 @@
         <v>77</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>78</v>
@@ -20075,7 +20078,7 @@
         <v>77</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>77</v>
@@ -20086,10 +20089,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20112,13 +20115,13 @@
         <v>80</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -20169,7 +20172,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -20187,7 +20190,7 @@
         <v>77</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>77</v>
@@ -20198,10 +20201,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20224,13 +20227,13 @@
         <v>80</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -20281,7 +20284,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>87</v>
@@ -20299,7 +20302,7 @@
         <v>77</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>77</v>
@@ -20310,10 +20313,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20336,13 +20339,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -20393,7 +20396,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -20411,7 +20414,7 @@
         <v>77</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>77</v>
@@ -20422,10 +20425,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20534,10 +20537,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20648,14 +20651,14 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -20677,10 +20680,10 @@
         <v>131</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>156</v>
@@ -20735,7 +20738,7 @@
         <v>77</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>78</v>
@@ -20764,10 +20767,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20793,10 +20796,10 @@
         <v>200</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -20826,10 +20829,10 @@
         <v>110</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>77</v>
@@ -20847,7 +20850,7 @@
         <v>77</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>78</v>
@@ -20865,7 +20868,7 @@
         <v>77</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>77</v>
@@ -20876,10 +20879,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20902,13 +20905,13 @@
         <v>77</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -20959,7 +20962,7 @@
         <v>77</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>87</v>
@@ -20977,7 +20980,7 @@
         <v>77</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>77</v>
@@ -20988,10 +20991,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21014,19 +21017,19 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>77</v>
@@ -21075,7 +21078,7 @@
         <v>77</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>78</v>
@@ -21093,7 +21096,7 @@
         <v>77</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>77</v>
@@ -21104,10 +21107,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21133,13 +21136,13 @@
         <v>200</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
@@ -21168,10 +21171,10 @@
         <v>340</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>77</v>
@@ -21189,7 +21192,7 @@
         <v>77</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>78</v>
@@ -21207,7 +21210,7 @@
         <v>77</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>77</v>

--- a/docs/StructureDefinition-BRProcedimentoRealizado-1.0.xlsx
+++ b/docs/StructureDefinition-BRProcedimentoRealizado-1.0.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-BRProcedimentoRealizado-1.0.xlsx
+++ b/docs/StructureDefinition-BRProcedimentoRealizado-1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5887" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5886" uniqueCount="692">
   <si>
     <t>Property</t>
   </si>
@@ -1538,13 +1538,7 @@
     <t>FiveWs.source</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner</t>
-  </si>
-  <si>
     <t>Procedure.performer</t>
-  </si>
-  <si>
-    <t>practitioner</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -1566,19 +1560,13 @@
     <t>.participation[typeCode=PRF]</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.id</t>
-  </si>
-  <si>
     <t>Procedure.performer.id</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.extension</t>
-  </si>
-  <si>
     <t>Procedure.performer.extension</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.extension:healthcareTeam</t>
+    <t>Procedure.performer.extension:healthcareTeam</t>
   </si>
   <si>
     <t>healthcareTeam</t>
@@ -1594,9 +1582,6 @@
     <t>Identifica a equipe de saúde que realizou o procedimento utilizando o Identificador Nacional de Equipes.</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.modifierExtension</t>
-  </si>
-  <si>
     <t>Procedure.performer.modifierExtension</t>
   </si>
   <si>
@@ -1614,9 +1599,6 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function</t>
-  </si>
-  <si>
     <t>Procedure.performer.function</t>
   </si>
   <si>
@@ -1644,73 +1626,37 @@
     <t>Some combination of STF-18 / PRA-3 / PRT-4 / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17 / OBX-25</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.id</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.id</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.extension</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.extension</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.coding</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.coding</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.coding.id</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.coding.id</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.coding.extension</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.coding.extension</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.coding.system</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.coding.system</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.coding.version</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.coding.version</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.coding.code</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.coding.code</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.coding.display</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.coding.display</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.coding.userSelected</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.coding.userSelected</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.function.text</t>
-  </si>
-  <si>
     <t>Procedure.performer.function.text</t>
-  </si>
-  <si>
-    <t>Procedure.performer:practitioner.actor</t>
   </si>
   <si>
     <t>Procedure.performer.actor</t>
@@ -1741,25 +1687,13 @@
     <t>ORC-19/PRT-5</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.id</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.id</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.extension</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.extension</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.reference</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.reference</t>
-  </si>
-  <si>
-    <t>Procedure.performer:practitioner.actor.type</t>
   </si>
   <si>
     <t>Procedure.performer.actor.type</t>
@@ -1772,67 +1706,34 @@
 The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.identifier</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.identifier</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.identifier.id</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.identifier.id</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.identifier.extension</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.identifier.extension</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.identifier.use</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.identifier.use</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.identifier.type</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.identifier.type</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.identifier.system</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.identifier.system</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.identifier.value</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.identifier.value</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.identifier.period</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.identifier.period</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.identifier.assigner</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.identifier.assigner</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.actor.display</t>
-  </si>
-  <si>
     <t>Procedure.performer.actor.display</t>
-  </si>
-  <si>
-    <t>Procedure.performer:practitioner.onBehalfOf</t>
   </si>
   <si>
     <t>Procedure.performer.onBehalfOf</t>
@@ -1854,85 +1755,43 @@
     <t>.scoper</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.id</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.id</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.extension</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.extension</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.reference</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.reference</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.type</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.type</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.identifier</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.identifier</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.identifier.id</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.identifier.id</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.identifier.extension</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.identifier.extension</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.identifier.use</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.identifier.use</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.identifier.type</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.identifier.type</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.identifier.system</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.identifier.system</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.identifier.value</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.identifier.value</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.identifier.period</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.identifier.period</t>
   </si>
   <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.identifier.assigner</t>
-  </si>
-  <si>
     <t>Procedure.performer.onBehalfOf.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Procedure.performer:practitioner.onBehalfOf.display</t>
   </si>
   <si>
     <t>Procedure.performer.onBehalfOf.display</t>
@@ -2632,15 +2491,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.78515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.34765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.8046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2651,26 +2510,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.05078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.88671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="136.75390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="130.7421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="96.8828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9411,7 +9270,7 @@
         <v>393</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -13258,11 +13117,9 @@
         <v>490</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>77</v>
       </c>
@@ -13283,13 +13140,13 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13340,7 +13197,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13355,10 +13212,10 @@
         <v>98</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -13369,10 +13226,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13481,10 +13338,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13591,13 +13448,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>77</v>
@@ -13619,13 +13476,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13705,14 +13562,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13734,10 +13591,10 @@
         <v>131</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>156</v>
@@ -13792,7 +13649,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13821,10 +13678,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13850,14 +13707,14 @@
         <v>200</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>77</v>
@@ -13885,10 +13742,10 @@
         <v>194</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
@@ -13906,7 +13763,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13921,24 +13778,24 @@
         <v>98</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14047,10 +13904,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14161,10 +14018,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14277,10 +14134,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14389,10 +14246,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14503,10 +14360,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14619,10 +14476,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14733,10 +14590,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14847,10 +14704,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14961,10 +14818,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15077,10 +14934,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15193,10 +15050,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15219,17 +15076,17 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -15278,7 +15135,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>87</v>
@@ -15293,24 +15150,24 @@
         <v>98</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15419,10 +15276,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15533,10 +15390,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15647,10 +15504,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15676,10 +15533,10 @@
         <v>100</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>432</v>
@@ -15761,10 +15618,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15875,10 +15732,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15987,10 +15844,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16101,10 +15958,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16217,10 +16074,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16333,10 +16190,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16449,10 +16306,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16563,10 +16420,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16675,10 +16532,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16789,10 +16646,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16903,10 +16760,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16929,17 +16786,17 @@
         <v>77</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -16988,7 +16845,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -17006,7 +16863,7 @@
         <v>77</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>77</v>
@@ -17017,10 +16874,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17129,10 +16986,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17243,10 +17100,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17357,10 +17214,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17386,10 +17243,10 @@
         <v>100</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>432</v>
@@ -17471,10 +17328,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17585,10 +17442,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>602</v>
+        <v>564</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17697,10 +17554,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17811,10 +17668,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17927,10 +17784,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18043,10 +17900,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18159,10 +18016,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>612</v>
+        <v>569</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18273,10 +18130,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>615</v>
+        <v>570</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18385,10 +18242,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>616</v>
+        <v>571</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>617</v>
+        <v>571</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18499,10 +18356,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>618</v>
+        <v>572</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>619</v>
+        <v>572</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18613,10 +18470,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18639,17 +18496,17 @@
         <v>80</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>624</v>
+        <v>577</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -18698,7 +18555,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>78</v>
@@ -18716,10 +18573,10 @@
         <v>77</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>77</v>
@@ -18727,10 +18584,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>627</v>
+        <v>580</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>627</v>
+        <v>580</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18756,13 +18613,13 @@
         <v>200</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>628</v>
+        <v>581</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>629</v>
+        <v>582</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -18791,10 +18648,10 @@
         <v>340</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>632</v>
+        <v>585</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>77</v>
@@ -18812,7 +18669,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>627</v>
+        <v>580</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -18827,13 +18684,13 @@
         <v>98</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>634</v>
+        <v>587</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>77</v>
@@ -18841,10 +18698,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>636</v>
+        <v>589</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>636</v>
+        <v>589</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18867,16 +18724,16 @@
         <v>80</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>639</v>
+        <v>592</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>640</v>
+        <v>593</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -18926,7 +18783,7 @@
         <v>77</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>636</v>
+        <v>589</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>78</v>
@@ -18941,13 +18798,13 @@
         <v>98</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>634</v>
+        <v>587</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>77</v>
@@ -18955,10 +18812,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18984,13 +18841,13 @@
         <v>200</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>643</v>
+        <v>596</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>644</v>
+        <v>597</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>645</v>
+        <v>598</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19019,10 +18876,10 @@
         <v>340</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>646</v>
+        <v>599</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>77</v>
@@ -19040,7 +18897,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -19058,21 +18915,21 @@
         <v>77</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>649</v>
+        <v>602</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19098,13 +18955,13 @@
         <v>200</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>652</v>
+        <v>605</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>653</v>
+        <v>606</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -19133,10 +18990,10 @@
         <v>340</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>654</v>
+        <v>607</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>77</v>
@@ -19154,7 +19011,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -19172,7 +19029,7 @@
         <v>77</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>77</v>
@@ -19183,10 +19040,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19209,16 +19066,16 @@
         <v>77</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>661</v>
+        <v>614</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19268,7 +19125,7 @@
         <v>77</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>78</v>
@@ -19286,7 +19143,7 @@
         <v>77</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>77</v>
@@ -19297,10 +19154,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19326,13 +19183,13 @@
         <v>200</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>664</v>
+        <v>617</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -19361,10 +19218,10 @@
         <v>340</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>77</v>
@@ -19382,7 +19239,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -19400,7 +19257,7 @@
         <v>77</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>77</v>
@@ -19411,10 +19268,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19437,17 +19294,17 @@
         <v>77</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -19496,7 +19353,7 @@
         <v>77</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>78</v>
@@ -19514,7 +19371,7 @@
         <v>77</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>77</v>
@@ -19525,10 +19382,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19554,10 +19411,10 @@
         <v>200</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -19587,10 +19444,10 @@
         <v>340</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>77</v>
@@ -19608,7 +19465,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -19626,7 +19483,7 @@
         <v>77</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>77</v>
@@ -19637,10 +19494,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19663,13 +19520,13 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>682</v>
+        <v>635</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>683</v>
+        <v>636</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>684</v>
+        <v>637</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -19720,7 +19577,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -19735,24 +19592,24 @@
         <v>98</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>685</v>
+        <v>638</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>686</v>
+        <v>639</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>687</v>
+        <v>640</v>
       </c>
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19861,10 +19718,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19975,10 +19832,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20001,16 +19858,16 @@
         <v>80</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>693</v>
+        <v>646</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20060,7 +19917,7 @@
         <v>77</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>78</v>
@@ -20078,7 +19935,7 @@
         <v>77</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>696</v>
+        <v>649</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>77</v>
@@ -20089,10 +19946,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20118,10 +19975,10 @@
         <v>471</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -20172,7 +20029,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -20190,7 +20047,7 @@
         <v>77</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>77</v>
@@ -20201,10 +20058,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20227,13 +20084,13 @@
         <v>80</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>703</v>
+        <v>656</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>705</v>
+        <v>658</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -20284,7 +20141,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>706</v>
+        <v>659</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>87</v>
@@ -20302,7 +20159,7 @@
         <v>77</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>707</v>
+        <v>660</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>77</v>
@@ -20313,10 +20170,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>708</v>
+        <v>661</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>708</v>
+        <v>661</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20339,13 +20196,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>709</v>
+        <v>662</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>710</v>
+        <v>663</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -20396,7 +20253,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>708</v>
+        <v>661</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -20414,7 +20271,7 @@
         <v>77</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>711</v>
+        <v>664</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>77</v>
@@ -20425,10 +20282,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>712</v>
+        <v>665</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>712</v>
+        <v>665</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20537,10 +20394,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20651,14 +20508,14 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -20680,10 +20537,10 @@
         <v>131</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>156</v>
@@ -20738,7 +20595,7 @@
         <v>77</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>78</v>
@@ -20767,10 +20624,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20796,10 +20653,10 @@
         <v>200</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>717</v>
+        <v>670</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -20829,10 +20686,10 @@
         <v>110</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>77</v>
@@ -20850,7 +20707,7 @@
         <v>77</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>78</v>
@@ -20868,7 +20725,7 @@
         <v>77</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>720</v>
+        <v>673</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>77</v>
@@ -20879,10 +20736,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20905,13 +20762,13 @@
         <v>77</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>722</v>
+        <v>675</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>723</v>
+        <v>676</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>724</v>
+        <v>677</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -20962,7 +20819,7 @@
         <v>77</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>87</v>
@@ -20980,7 +20837,7 @@
         <v>77</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>725</v>
+        <v>678</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>77</v>
@@ -20991,10 +20848,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21017,19 +20874,19 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>727</v>
+        <v>680</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>728</v>
+        <v>681</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>729</v>
+        <v>682</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>730</v>
+        <v>683</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>731</v>
+        <v>684</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>77</v>
@@ -21078,7 +20935,7 @@
         <v>77</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>78</v>
@@ -21096,7 +20953,7 @@
         <v>77</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>732</v>
+        <v>685</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>77</v>
@@ -21107,10 +20964,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21136,13 +20993,13 @@
         <v>200</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>734</v>
+        <v>687</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>735</v>
+        <v>688</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>730</v>
+        <v>683</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
@@ -21171,10 +21028,10 @@
         <v>340</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>736</v>
+        <v>689</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>737</v>
+        <v>690</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>77</v>
@@ -21192,7 +21049,7 @@
         <v>77</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>78</v>
@@ -21210,7 +21067,7 @@
         <v>77</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>738</v>
+        <v>691</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>77</v>

--- a/docs/StructureDefinition-BRProcedimentoRealizado-1.0.xlsx
+++ b/docs/StructureDefinition-BRProcedimentoRealizado-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -2491,15 +2491,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.8046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.4921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2510,26 +2510,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.88671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.54296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="130.7421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="96.8828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.13671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="124.67578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.38671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9046,7 +9046,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
